--- a/docs/original_docs/benchmark_result.xlsx
+++ b/docs/original_docs/benchmark_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22192" windowHeight="10455"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Setting: e5  + LLAMA3-8B-instruct, topk=5, max_new_tokens=32, max_input_len=4k</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>RQRAG</t>
+  </si>
+  <si>
+    <t>R1-Searcher</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +220,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -694,137 +706,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,6 +863,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,19 +1187,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.8938053097345" customWidth="1"/>
-    <col min="2" max="2" width="19.6548672566372" customWidth="1"/>
+    <col min="1" max="1" width="26.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.6583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.85" spans="1:20">
+    <row r="1" ht="15" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1223,7 @@
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
     </row>
-    <row r="2" ht="13.85" spans="1:20">
+    <row r="2" ht="15" spans="1:20">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1224,7 +1245,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" ht="14.25" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1283,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" ht="14.25" spans="1:20">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -1320,7 +1341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="13.85" spans="1:20">
+    <row r="5" ht="15" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1354,35 +1375,35 @@
       <c r="K5" s="6">
         <v>28.4</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="12">
         <v>26.4</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="12">
         <v>30.8</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="12">
         <v>33.9</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="12">
         <v>18.7</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="12">
         <v>22.9</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="12">
         <v>21.7</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="12">
         <v>18.8</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="12">
         <v>41</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="12">
         <v>38.8</v>
       </c>
     </row>
-    <row r="6" ht="13.85" spans="1:20">
+    <row r="6" ht="15" spans="1:20">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -1416,35 +1437,35 @@
       <c r="K6" s="6">
         <v>35.3</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="12">
         <v>8.6</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="12">
         <v>30.4</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="12">
         <v>21</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="12">
         <v>21.7</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="12">
         <v>57.8</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="12">
         <v>36.7</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="12">
         <v>15.7</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="12">
         <v>39.6</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="12">
         <v>33.3</v>
       </c>
     </row>
-    <row r="7" ht="13.85" spans="1:20">
+    <row r="7" ht="15" spans="1:20">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1478,35 +1499,35 @@
       <c r="K7" s="6">
         <v>33.4</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="12">
         <v>8.8</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="12">
         <v>25.8</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="12">
         <v>19.8</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="12">
         <v>21.6</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="12">
         <v>56.2</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="12">
         <v>36.1</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="12">
         <v>16.1</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="12">
         <v>40</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="12">
         <v>32.7</v>
       </c>
     </row>
-    <row r="8" ht="13.85" spans="1:20">
+    <row r="8" ht="15" spans="1:20">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1540,35 +1561,35 @@
       <c r="K8" s="6">
         <v>37.5</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="12">
         <v>14.1</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="12">
         <v>26.9</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="12">
         <v>25</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="12">
         <v>24.5</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="12">
         <v>53.7</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="12">
         <v>38.7</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="12">
         <v>17.5</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="12">
         <v>37.3</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="12">
         <v>35.1</v>
       </c>
     </row>
-    <row r="9" ht="13.85" spans="1:20">
+    <row r="9" ht="15" spans="1:20">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1602,35 +1623,35 @@
       <c r="K9" s="6">
         <v>37.5</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="12">
         <v>25.4</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="12">
         <v>28.1</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="12">
         <v>32.4</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="12">
         <v>25.8</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="12">
         <v>56.2</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="12">
         <v>39.9</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="12">
         <v>20.2</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="12">
         <v>40.9</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="12">
         <v>37.9</v>
       </c>
     </row>
-    <row r="10" ht="13.85" spans="1:20">
+    <row r="10" ht="15" spans="1:20">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1664,35 +1685,35 @@
       <c r="K10" s="6">
         <v>34.4</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="12">
         <v>8.5</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="12">
         <v>23.5</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="12">
         <v>18.5</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="12">
         <v>25.4</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="12">
         <v>41.4</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="12">
         <v>33.5</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="12">
         <v>17.3</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="12">
         <v>34.7</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="12">
         <v>33.6</v>
       </c>
     </row>
-    <row r="11" ht="13.85" spans="1:20">
+    <row r="11" ht="15" spans="1:20">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1726,35 +1747,35 @@
       <c r="K11" s="5">
         <v>35.8</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="12">
         <v>38.6</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="12">
         <v>40.6</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="12">
         <v>43.4</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="12">
         <v>55.1</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="12">
         <v>57.2</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="12">
         <v>57.2</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="12">
         <v>33.7</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="12">
         <v>45.8</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="12">
         <v>49.5</v>
       </c>
     </row>
-    <row r="12" ht="13.85" spans="1:20">
+    <row r="12" ht="15" spans="1:20">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1788,35 +1809,35 @@
       <c r="K12" s="5">
         <v>33.4</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="12">
         <v>14</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="12">
         <v>16.6</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="12">
         <v>20.6</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="12">
         <v>38</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="12">
         <v>53</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="12">
         <v>48.1</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="12">
         <v>24.2</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="12">
         <v>32.2</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="12">
         <v>39.7</v>
       </c>
     </row>
-    <row r="13" ht="13.85" spans="1:20">
+    <row r="13" ht="15" spans="1:20">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1850,35 +1871,35 @@
       <c r="K13" s="5">
         <v>31.2</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="12">
         <v>13.5</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="12">
         <v>24.1</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="12">
         <v>21.1</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="12">
         <v>17.9</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="12">
         <v>41.5</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="12">
         <v>27.8</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="12">
         <v>20.2</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="12">
         <v>35.9</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="12">
         <v>36.1</v>
       </c>
     </row>
-    <row r="14" ht="13.85" spans="1:20">
+    <row r="14" ht="15" spans="1:20">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1912,35 +1933,35 @@
       <c r="K14" s="5">
         <v>32.4</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="12">
         <v>12</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="12">
         <v>29.3</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="12">
         <v>23.4</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="12">
         <v>21</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="12">
         <v>44.1</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="12">
         <v>31.7</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="12">
         <v>17</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="12">
         <v>38.9</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="15" ht="13.85" spans="1:20">
+    <row r="15" ht="15" spans="1:20">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1974,35 +1995,35 @@
       <c r="K15" s="5">
         <v>29.6</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="12">
         <v>12.1</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="12">
         <v>33.5</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="12">
         <v>25.1</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="12">
         <v>18</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="12">
         <v>56</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="12">
         <v>32.7</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="12">
         <v>21.9</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="12">
         <v>43.1</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="12">
         <v>39.9</v>
       </c>
     </row>
-    <row r="16" ht="13.85" spans="1:20">
+    <row r="16" ht="15" spans="1:20">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -2036,35 +2057,35 @@
       <c r="K16" s="6">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="12">
         <v>25.8</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="12">
         <v>31.7</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="12">
         <v>33.9</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="12">
         <v>18.1</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="12">
         <v>22.2</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="12">
         <v>20.7</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="12">
         <v>20.2</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="12">
         <v>39.6</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="12">
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="13.85" spans="1:20">
+    <row r="17" ht="15" spans="1:20">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -2098,35 +2119,35 @@
       <c r="K17" s="5">
         <v>38.3</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="12">
         <v>9.9</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="12">
         <v>29.7</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="12">
         <v>21.6</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="12">
         <v>22.4</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="12">
         <v>57.6</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="12">
         <v>37.9</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="12">
         <v>18.2</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="12">
         <v>39.7</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="12">
         <v>34.1</v>
       </c>
     </row>
-    <row r="18" ht="13.85" spans="1:20">
+    <row r="18" ht="15" spans="1:20">
       <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
@@ -2160,35 +2181,35 @@
       <c r="K18" s="5">
         <v>41.5</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="12">
         <v>24.2</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="12">
         <v>29.4</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="12">
         <v>32.4</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="12">
         <v>33.7</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="12">
         <v>59.8</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="12">
         <v>45.6</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="12">
         <v>20.7</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="12">
         <v>39.3</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="12">
         <v>36.5</v>
       </c>
     </row>
-    <row r="19" ht="15.35" spans="1:20">
+    <row r="19" ht="15.75" spans="1:20">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
@@ -2250,7 +2271,7 @@
         <v>35.8</v>
       </c>
     </row>
-    <row r="20" ht="15.35" spans="1:20">
+    <row r="20" ht="15.75" spans="1:20">
       <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
@@ -2312,7 +2333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="15.35" spans="1:20">
+    <row r="21" ht="15.75" spans="1:20">
       <c r="A21" s="8" t="s">
         <v>34</v>
       </c>
@@ -2374,7 +2395,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="22" ht="15.35" spans="1:20">
+    <row r="22" ht="15.75" spans="1:20">
       <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
@@ -2435,6 +2456,70 @@
       <c r="T22" s="5">
         <v>39</v>
       </c>
+    </row>
+    <row r="23" ht="15.75" spans="1:22">
+      <c r="A23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="11">
+        <v>37.3</v>
+      </c>
+      <c r="D23" s="10">
+        <v>47.9</v>
+      </c>
+      <c r="E23" s="11">
+        <v>49.1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>58.7</v>
+      </c>
+      <c r="G23" s="10">
+        <v>65.5</v>
+      </c>
+      <c r="H23" s="10">
+        <v>67.4</v>
+      </c>
+      <c r="I23" s="10">
+        <v>46.9</v>
+      </c>
+      <c r="J23" s="10">
+        <v>51.9</v>
+      </c>
+      <c r="K23" s="11">
+        <v>59.5</v>
+      </c>
+      <c r="L23" s="10">
+        <v>48.3</v>
+      </c>
+      <c r="M23" s="11">
+        <v>53.2</v>
+      </c>
+      <c r="N23" s="10">
+        <v>55.5</v>
+      </c>
+      <c r="O23" s="10">
+        <v>30.3</v>
+      </c>
+      <c r="P23" s="10">
+        <v>56.5</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>43.9</v>
+      </c>
+      <c r="R23" s="10">
+        <v>27.5</v>
+      </c>
+      <c r="S23" s="10">
+        <v>41.7</v>
+      </c>
+      <c r="T23" s="10">
+        <v>43.4</v>
+      </c>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/docs/original_docs/benchmark_result.xlsx
+++ b/docs/original_docs/benchmark_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="22192" windowHeight="10455" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Base" sheetId="1" r:id="rId1"/>
+    <sheet name="Reasoning Method" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>Setting: e5  + LLAMA3-8B-instruct, topk=5, max_new_tokens=32, max_input_len=4k</t>
   </si>
@@ -176,6 +176,39 @@
   </si>
   <si>
     <t>Reasoning</t>
+  </si>
+  <si>
+    <t>Popqa</t>
+  </si>
+  <si>
+    <t>Hotpotqa</t>
+  </si>
+  <si>
+    <t>Musique</t>
+  </si>
+  <si>
+    <t>Bamboogle</t>
+  </si>
+  <si>
+    <t>search-r1</t>
+  </si>
+  <si>
+    <t>O2-searcher</t>
+  </si>
+  <si>
+    <t>Autorefine</t>
+  </si>
+  <si>
+    <t>ReaRAG</t>
+  </si>
+  <si>
+    <t>CoRAG</t>
+  </si>
+  <si>
+    <t>r1-searcher</t>
+  </si>
+  <si>
+    <t>simpledeepsearcher</t>
   </si>
 </sst>
 </file>
@@ -190,13 +223,26 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -207,13 +253,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -580,12 +619,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -706,174 +760,192 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,1337 +1261,1337 @@
   <sheetPr/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.8916666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.6583333333333" customWidth="1"/>
+    <col min="1" max="1" width="26.8938053097345" customWidth="1"/>
+    <col min="2" max="2" width="19.6548672566372" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:20">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="13.85" spans="1:20">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
     </row>
-    <row r="2" ht="15" spans="1:20">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+    <row r="2" ht="13.85" spans="1:20">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
-    <row r="3" ht="14.25" spans="1:20">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
     </row>
-    <row r="4" ht="14.25" spans="1:20">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:20">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="13.85" spans="1:20">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="13">
         <v>22.6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="13">
         <v>31.7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="14">
         <v>33</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="14">
         <v>55.7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="14">
         <v>59.6</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="14">
         <v>63.1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="14">
         <v>20</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="14">
         <v>22</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="14">
         <v>28.4</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="18">
         <v>26.4</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="18">
         <v>30.8</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="18">
         <v>33.9</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="18">
         <v>18.7</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="18">
         <v>22.9</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="18">
         <v>21.7</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="18">
         <v>18.8</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="18">
         <v>41</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="18">
         <v>38.8</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:20">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="13.85" spans="1:20">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="13">
         <v>35.1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="13">
         <v>51.3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="14">
         <v>47</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="13">
         <v>58.9</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="13">
         <v>68.3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="13">
         <v>68.3</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="14">
         <v>25.1</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="14">
         <v>33.1</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="14">
         <v>35.3</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="18">
         <v>8.6</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="18">
         <v>30.4</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="18">
         <v>21</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="18">
         <v>21.7</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="18">
         <v>57.8</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="18">
         <v>36.7</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="18">
         <v>15.7</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="18">
         <v>39.6</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="18">
         <v>33.3</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:20">
-      <c r="A7" s="7" t="s">
+    <row r="7" ht="13.85" spans="1:20">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="13">
         <v>30.1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="13">
         <v>43.4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="14">
         <v>40.4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="14">
         <v>56.8</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="14">
         <v>65.9</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="14">
         <v>23</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="14">
         <v>30</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="14">
         <v>33.4</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="18">
         <v>8.8</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="18">
         <v>25.8</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="18">
         <v>19.8</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="18">
         <v>21.6</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="18">
         <v>56.2</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="18">
         <v>36.1</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="18">
         <v>16.1</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="18">
         <v>40</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="18">
         <v>32.7</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:20">
-      <c r="A8" s="7" t="s">
+    <row r="8" ht="13.85" spans="1:20">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="14">
         <v>32.2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="13">
         <v>45.7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="14">
         <v>44</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="13">
         <v>59.2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="13">
         <v>66.4</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="14">
         <v>68.3</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="14">
         <v>27.4</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="14">
         <v>31.5</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="14">
         <v>37.5</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="18">
         <v>14.1</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="18">
         <v>26.9</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="18">
         <v>25</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="18">
         <v>24.5</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="18">
         <v>53.7</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="18">
         <v>38.7</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="18">
         <v>17.5</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="18">
         <v>37.3</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="18">
         <v>35.1</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:20">
-      <c r="A9" s="7" t="s">
+    <row r="9" ht="13.85" spans="1:20">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="13">
         <v>33.1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="14">
         <v>45.5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="13">
         <v>43.7</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="13">
         <v>56.4</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="14">
         <v>64</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="14">
         <v>65.8</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="14">
         <v>27.5</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="14">
         <v>31.7</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="14">
         <v>37.5</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="18">
         <v>25.4</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="18">
         <v>28.1</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="18">
         <v>32.4</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="18">
         <v>25.8</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="18">
         <v>56.2</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="18">
         <v>39.9</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="18">
         <v>20.2</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="18">
         <v>40.9</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="18">
         <v>37.9</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:20">
-      <c r="A10" s="7" t="s">
+    <row r="10" ht="13.85" spans="1:20">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="13">
         <v>30.5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="13">
         <v>43.4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="13">
         <v>42.2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="13">
         <v>55.6</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="13">
         <v>62.6</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="13">
         <v>64.4</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="14">
         <v>24</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="14">
         <v>29.3</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="14">
         <v>34.4</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="18">
         <v>8.5</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="18">
         <v>23.5</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="18">
         <v>18.5</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="18">
         <v>25.4</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="18">
         <v>41.4</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="18">
         <v>33.5</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="18">
         <v>17.3</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="18">
         <v>34.7</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="18">
         <v>33.6</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:20">
-      <c r="A11" s="7" t="s">
+    <row r="11" ht="13.85" spans="1:20">
+      <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="13">
         <v>42.9</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="13">
         <v>50.7</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="13">
         <v>53.8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="13">
         <v>68.2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="13">
         <v>72.4</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="14">
         <v>76</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="13">
         <v>27.2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="13">
         <v>30.6</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="13">
         <v>35.8</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="18">
         <v>38.6</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="18">
         <v>40.6</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="18">
         <v>43.4</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="18">
         <v>55.1</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="18">
         <v>57.2</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="18">
         <v>57.2</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="18">
         <v>33.7</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="18">
         <v>45.8</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="18">
         <v>49.5</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:20">
-      <c r="A12" s="7" t="s">
+    <row r="12" ht="13.85" spans="1:20">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="13">
         <v>37.1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="14">
         <v>42.4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="13">
         <v>48.5</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="13">
         <v>53.2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="14">
         <v>59</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="13">
         <v>62.9</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="13">
         <v>22.8</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="13">
         <v>28.3</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="13">
         <v>33.4</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="18">
         <v>14</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="18">
         <v>16.6</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="18">
         <v>20.6</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="18">
         <v>38</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="18">
         <v>53</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="18">
         <v>48.1</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="18">
         <v>24.2</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="18">
         <v>32.2</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="18">
         <v>39.7</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:20">
-      <c r="A13" s="7" t="s">
+    <row r="13" ht="13.85" spans="1:20">
+      <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="13">
         <v>28.9</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="13">
         <v>40.6</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="13">
         <v>39.6</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="14">
         <v>57.7</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="13">
         <v>63.8</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="13">
         <v>65.5</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="13">
         <v>22.5</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="13">
         <v>27.2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="13">
         <v>31.2</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="18">
         <v>13.5</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="18">
         <v>24.1</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="18">
         <v>21.1</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="18">
         <v>17.9</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="18">
         <v>41.5</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="18">
         <v>27.8</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="18">
         <v>20.2</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="18">
         <v>35.9</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="18">
         <v>36.1</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:20">
-      <c r="A14" s="7" t="s">
+    <row r="14" ht="13.85" spans="1:20">
+      <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="13">
         <v>33.2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="13">
         <v>46.9</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="13">
         <v>44.5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="13">
         <v>56</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="14">
         <v>64.5</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="13">
         <v>65.2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="13">
         <v>23</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="13">
         <v>28.3</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="13">
         <v>32.4</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="18">
         <v>12</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="18">
         <v>29.3</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="18">
         <v>23.4</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="18">
         <v>21</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="18">
         <v>44.1</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="18">
         <v>31.7</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="18">
         <v>17</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="18">
         <v>38.9</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="18">
         <v>35</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:20">
-      <c r="A15" s="7" t="s">
+    <row r="15" ht="13.85" spans="1:20">
+      <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="13">
         <v>36.4</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="13">
         <v>41.7</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="13">
         <v>45.2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="13">
         <v>38.2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="13">
         <v>64.1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="13">
         <v>53.4</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="13">
         <v>17.1</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="13">
         <v>32.1</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="13">
         <v>29.6</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="18">
         <v>12.1</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="18">
         <v>33.5</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="18">
         <v>25.1</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="18">
         <v>18</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="18">
         <v>56</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="18">
         <v>32.7</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="18">
         <v>21.9</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="18">
         <v>43.1</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="18">
         <v>39.9</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:20">
-      <c r="A16" s="7" t="s">
+    <row r="16" ht="13.85" spans="1:20">
+      <c r="A16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="13">
         <v>22.5</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="13">
         <v>30.6</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="13">
         <v>32.4</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="14">
         <v>55.8</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="13">
         <v>59.7</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="13">
         <v>63.2</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="13">
         <v>19.7</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="13">
         <v>21.8</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="14">
         <v>28</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="18">
         <v>25.8</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="18">
         <v>31.7</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="18">
         <v>33.9</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="18">
         <v>18.1</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="18">
         <v>22.2</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="18">
         <v>20.7</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="18">
         <v>20.2</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="18">
         <v>39.6</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="18">
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:20">
-      <c r="A17" s="7" t="s">
+    <row r="17" ht="13.85" spans="1:20">
+      <c r="A17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="14">
         <v>36.8</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="13">
         <v>51.6</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="14">
         <v>48</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="13">
         <v>60.1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="13">
         <v>70.2</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="13">
         <v>69.2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="13">
         <v>27.7</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="13">
         <v>35.8</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="13">
         <v>38.3</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="18">
         <v>9.9</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="18">
         <v>29.7</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="18">
         <v>21.6</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="18">
         <v>22.4</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="18">
         <v>57.6</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="18">
         <v>37.9</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="18">
         <v>18.2</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="18">
         <v>39.7</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="18">
         <v>34.1</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:20">
-      <c r="A18" s="7" t="s">
+    <row r="18" ht="13.85" spans="1:20">
+      <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="13">
         <v>33.3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="13">
         <v>49.6</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="13">
         <v>45.9</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="13">
         <v>56.9</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="13">
         <v>66</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="13">
         <v>66.1</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="13">
         <v>30.6</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="13">
         <v>37.3</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="13">
         <v>41.5</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="18">
         <v>24.2</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="18">
         <v>29.4</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="18">
         <v>32.4</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="18">
         <v>33.7</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="18">
         <v>59.8</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="18">
         <v>45.6</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="18">
         <v>20.7</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="18">
         <v>39.3</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="18">
         <v>36.5</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:20">
-      <c r="A19" s="8" t="s">
+    <row r="19" ht="15.35" spans="1:20">
+      <c r="A19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="14">
         <v>30.7</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="13">
         <v>41.2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="14">
         <v>40.7</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="13">
         <v>50.2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="13">
         <v>56.7</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="13">
         <v>59.5</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="13">
         <v>25.2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="13">
         <v>28.7</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="14">
         <v>34</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="13">
         <v>9.7</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="14">
         <v>16.7</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="13">
         <v>15.5</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="13">
         <v>27.9</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="13">
         <v>46.8</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="13">
         <v>37.4</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="13">
         <v>19.9</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="13">
         <v>34.8</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="13">
         <v>35.8</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="1:20">
-      <c r="A20" s="8" t="s">
+    <row r="20" ht="15.35" spans="1:20">
+      <c r="A20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="14">
         <v>37.9</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="13">
         <v>45.6</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="14">
         <v>48.8</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="13">
         <v>64.6</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="13">
         <v>68.2</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="13">
         <v>71.6</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="13">
         <v>31.6</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="14">
         <v>34</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="14">
         <v>42.6</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="13">
         <v>31</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="14">
         <v>32.4</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="13">
         <v>37.3</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="13">
         <v>51.3</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="14">
         <v>55.8</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="13">
         <v>54.8</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="13">
         <v>27.7</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="13">
         <v>43.9</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="13">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:20">
-      <c r="A21" s="8" t="s">
+    <row r="21" ht="15.35" spans="1:20">
+      <c r="A21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="14">
         <v>35.1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="13">
         <v>50.5</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="14">
         <v>46.6</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="13">
         <v>56.6</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="13">
         <v>65.1</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="13">
         <v>65.6</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="13">
         <v>28</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="13">
         <v>37.1</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="14">
         <v>39.1</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="13">
         <v>18.6</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="14">
         <v>32.1</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="13">
         <v>28.4</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="13">
         <v>27.5</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="13">
         <v>58.3</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="13">
         <v>40.4</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="13">
         <v>16</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="13">
         <v>38.4</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="13">
         <v>33.4</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="1:20">
-      <c r="A22" s="8" t="s">
+    <row r="22" ht="15.35" spans="1:20">
+      <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="14">
         <v>32.6</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="13">
         <v>42</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="14">
         <v>44</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="13">
         <v>52.5</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="13">
         <v>60.6</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="13">
         <v>60.3</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="13">
         <v>28.9</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="13">
         <v>36.3</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="14">
         <v>33.5</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="13">
         <v>26.8</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="14">
         <v>36.8</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="13">
         <v>35.8</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="13">
         <v>38.9</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="13">
         <v>43.9</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="13">
         <v>46.4</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="13">
         <v>26.2</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="13">
         <v>39.7</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="13">
         <v>39</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:22">
-      <c r="A23" s="9" t="s">
+    <row r="23" ht="15.35" spans="1:22">
+      <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="14">
         <v>37.3</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="13">
         <v>47.9</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="14">
         <v>49.1</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="13">
         <v>58.7</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="13">
         <v>65.5</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="13">
         <v>67.4</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="13">
         <v>46.9</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="13">
         <v>51.9</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="14">
         <v>59.5</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="13">
         <v>48.3</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="14">
         <v>53.2</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="13">
         <v>55.5</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="13">
         <v>30.3</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="13">
         <v>56.5</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="13">
         <v>43.9</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="13">
         <v>27.5</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="13">
         <v>41.7</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="13">
         <v>43.4</v>
       </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2543,14 +2615,617 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.212389380531" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="22" max="22" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:22">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="8"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="13.85" spans="1:22">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45.2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>50.6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>54.4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>62.2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>66.9</v>
+      </c>
+      <c r="G3" s="7">
+        <v>69.5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49.2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>54.1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>53.1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>42.9</v>
+      </c>
+      <c r="L3" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="M3" s="6">
+        <v>54.5</v>
+      </c>
+      <c r="N3" s="7">
+        <v>35.7</v>
+      </c>
+      <c r="O3" s="7">
+        <v>39.6</v>
+      </c>
+      <c r="P3" s="6">
+        <v>42.6</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>21.2</v>
+      </c>
+      <c r="R3" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="S3" s="6">
+        <v>29.2</v>
+      </c>
+      <c r="T3" s="7">
+        <v>47.2</v>
+      </c>
+      <c r="U3" s="7">
+        <v>51.2</v>
+      </c>
+      <c r="V3" s="6">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="4" ht="13.85" spans="1:22">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>46.1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>49.7</v>
+      </c>
+      <c r="E4" s="6">
+        <v>51.4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>55.9</v>
+      </c>
+      <c r="G4" s="7">
+        <v>58.8</v>
+      </c>
+      <c r="H4" s="6">
+        <v>46.8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>53.5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>51.9</v>
+      </c>
+      <c r="K4" s="7">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7">
+        <v>35.3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>43.4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>41.5</v>
+      </c>
+      <c r="O4" s="7">
+        <v>45.2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>48.6</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="R4" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="S4" s="6">
+        <v>19</v>
+      </c>
+      <c r="T4" s="7">
+        <v>35.2</v>
+      </c>
+      <c r="U4" s="7">
+        <v>37.6</v>
+      </c>
+      <c r="V4" s="6">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="5" ht="13.85" spans="1:22">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6">
+        <v>43.8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54.2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>59.8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>65.4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>67.9</v>
+      </c>
+      <c r="H5" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>57.8</v>
+      </c>
+      <c r="J5" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="K5" s="7">
+        <v>42.6</v>
+      </c>
+      <c r="L5" s="7">
+        <v>46.8</v>
+      </c>
+      <c r="M5" s="6">
+        <v>54</v>
+      </c>
+      <c r="N5" s="7">
+        <v>41.4</v>
+      </c>
+      <c r="O5" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="R5" s="7">
+        <v>18.4</v>
+      </c>
+      <c r="S5" s="6">
+        <v>23.6</v>
+      </c>
+      <c r="T5" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="U5" s="7">
+        <v>36</v>
+      </c>
+      <c r="V5" s="6">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="6" ht="13.85" spans="1:22">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6">
+        <v>26.3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>38.2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>51.8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>60.9</v>
+      </c>
+      <c r="H6" s="6">
+        <v>24.6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>57.3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>39.9</v>
+      </c>
+      <c r="K6" s="7">
+        <v>30.9</v>
+      </c>
+      <c r="L6" s="7">
+        <v>40.3</v>
+      </c>
+      <c r="M6" s="6">
+        <v>42.9</v>
+      </c>
+      <c r="N6" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="O6" s="7">
+        <v>46.4</v>
+      </c>
+      <c r="P6" s="6">
+        <v>41.6</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>21.5</v>
+      </c>
+      <c r="S6" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="T6" s="7">
+        <v>29.6</v>
+      </c>
+      <c r="U6" s="7">
+        <v>32.8</v>
+      </c>
+      <c r="V6" s="6">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="7" ht="13.85" spans="1:22">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6">
+        <v>40.9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>48.4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>51.6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>63.1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>68.5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>71</v>
+      </c>
+      <c r="H7" s="6">
+        <v>36</v>
+      </c>
+      <c r="I7" s="7">
+        <v>61</v>
+      </c>
+      <c r="J7" s="7">
+        <v>49.3</v>
+      </c>
+      <c r="K7" s="7">
+        <v>44.7</v>
+      </c>
+      <c r="L7" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>56.6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>54.5</v>
+      </c>
+      <c r="O7" s="7">
+        <v>58.2</v>
+      </c>
+      <c r="P7" s="6">
+        <v>60.7</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>21.7</v>
+      </c>
+      <c r="R7" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="S7" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="T7" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="U7" s="7">
+        <v>46.4</v>
+      </c>
+      <c r="V7" s="6">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="8" ht="13.85" spans="1:22">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="6">
+        <v>36.9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>47.9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>48.7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>59</v>
+      </c>
+      <c r="F8" s="7">
+        <v>65.5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>67.6</v>
+      </c>
+      <c r="H8" s="6">
+        <v>30.2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>46.7</v>
+      </c>
+      <c r="L8" s="7">
+        <v>51.6</v>
+      </c>
+      <c r="M8" s="6">
+        <v>59</v>
+      </c>
+      <c r="N8" s="7">
+        <v>47.9</v>
+      </c>
+      <c r="O8" s="7">
+        <v>52.5</v>
+      </c>
+      <c r="P8" s="6">
+        <v>54.7</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="R8" s="7">
+        <v>28</v>
+      </c>
+      <c r="S8" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="T8" s="7">
+        <v>44</v>
+      </c>
+      <c r="U8" s="7">
+        <v>47.2</v>
+      </c>
+      <c r="V8" s="6">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="9" ht="13.85" spans="1:22">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46.2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>61.6</v>
+      </c>
+      <c r="F9" s="7">
+        <v>69.4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>68.8</v>
+      </c>
+      <c r="H9" s="6">
+        <v>42</v>
+      </c>
+      <c r="I9" s="7">
+        <v>54</v>
+      </c>
+      <c r="J9" s="7">
+        <v>47.4</v>
+      </c>
+      <c r="K9" s="7">
+        <v>37.9</v>
+      </c>
+      <c r="L9" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="M9" s="6">
+        <v>49</v>
+      </c>
+      <c r="N9" s="7">
+        <v>42.7</v>
+      </c>
+      <c r="O9" s="7">
+        <v>51.2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>49.1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>17.4</v>
+      </c>
+      <c r="R9" s="7">
+        <v>24</v>
+      </c>
+      <c r="S9" s="6">
+        <v>24.7</v>
+      </c>
+      <c r="T9" s="7">
+        <v>47.2</v>
+      </c>
+      <c r="U9" s="7">
+        <v>49.6</v>
+      </c>
+      <c r="V9" s="6">
+        <v>57.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
